--- a/Labs/PantallasEjercicios.xlsx
+++ b/Labs/PantallasEjercicios.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Conversor" sheetId="1" r:id="rId1"/>
     <sheet name="CifradoCesar" sheetId="2" r:id="rId2"/>
+    <sheet name="Parsing" sheetId="3" r:id="rId3"/>
+    <sheet name="Agenda" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -64,13 +66,70 @@
   </si>
   <si>
     <t>ipmb nvop</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>printInfo();</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Esta pantalla recibe una caden JSOn y la parsea a un objeto javascript</t>
+  </si>
+  <si>
+    <t>Le agrega una funcion printInfo() y se invoca con el boton Info</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>homero@s.com</t>
+  </si>
+  <si>
+    <t>Homero Simpson</t>
+  </si>
+  <si>
+    <t>Agregar</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Borrar</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>Homero</t>
+  </si>
+  <si>
+    <t>h@s.com</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>b@s.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +156,14 @@
       <color rgb="FF0000CD"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -131,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -191,11 +258,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -215,12 +363,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,6 +568,350 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219575" cy="3505199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="219075"/>
+          <a:ext cx="4219575" cy="3505199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Generar pantalla	agenda.html	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Generar CSS		estilos.css</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Generar JS		funciones.js</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Generar funcion del evento click</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1"/>
+            <a:t>      function eventoAgregar()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0"/>
+            <a:t> {}</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      function eventoLimpiar()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {}</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      function eventoEditar()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {}</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      function eventoBorrar()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {}</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Generar funcion agregar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1"/>
+            <a:t>      function agregar(contacto)	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      function borrar(contacto)	</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      function actualizar(contacto)	</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>      funcion cargar()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0"/>
+            <a:t>      funcion salvar(arregloContacto)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0"/>
+            <a:t>Array global</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0"/>
+            <a:t>      function Contacto()</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -831,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,4 +1512,476 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="9">
+        <v>40</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
+        <v>40</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="15">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7">
+        <v>40</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="15">
+        <v>30</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F17" r:id="rId4"/>
+    <hyperlink ref="F18" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
+</worksheet>
 </file>
--- a/Labs/PantallasEjercicios.xlsx
+++ b/Labs/PantallasEjercicios.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Conversor" sheetId="1" r:id="rId1"/>
     <sheet name="CifradoCesar" sheetId="2" r:id="rId2"/>
     <sheet name="Parsing" sheetId="3" r:id="rId3"/>
     <sheet name="Agenda" sheetId="4" r:id="rId4"/>
+    <sheet name="Flexbox" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -123,13 +124,52 @@
   </si>
   <si>
     <t>b@s.com</t>
+  </si>
+  <si>
+    <t>Media screen: Desktop max 480</t>
+  </si>
+  <si>
+    <t>Contacto 22</t>
+  </si>
+  <si>
+    <t>Contacto 30</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Contacto 10</t>
+  </si>
+  <si>
+    <t>Contacto 44</t>
+  </si>
+  <si>
+    <t>Liza 10 liza@springfield.com</t>
+  </si>
+  <si>
+    <t>Homero 40 homero@springfield.com</t>
+  </si>
+  <si>
+    <t>Bart 9 bart@springfield.com</t>
+  </si>
+  <si>
+    <t>Marge 35 marge@springfield.com</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Media screen: Desktop max 1024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +205,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -376,6 +465,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -917,6 +1044,493 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47893</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9839593" y="2657475"/>
+          <a:ext cx="285482" cy="285482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47893</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9839593" y="3048000"/>
+          <a:ext cx="285482" cy="285482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323582</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9829800" y="3448050"/>
+          <a:ext cx="285482" cy="285482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333107</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9839325" y="3857625"/>
+          <a:ext cx="285482" cy="285482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12306301" y="2590799"/>
+          <a:ext cx="257175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12296776" y="3000374"/>
+          <a:ext cx="257175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12315825" y="3390900"/>
+          <a:ext cx="257175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12287250" y="3800475"/>
+          <a:ext cx="257175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11487151" y="1893389"/>
+          <a:ext cx="419100" cy="421185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>169657</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10420351" y="1857375"/>
+          <a:ext cx="483981" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1670,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,4 +2598,703 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AA22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="21"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="21"/>
+    </row>
+    <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="21"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="21"/>
+    </row>
+    <row r="4" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="21"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="21"/>
+    </row>
+    <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="21"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="21"/>
+    </row>
+    <row r="6" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="21"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="21"/>
+    </row>
+    <row r="7" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9">
+        <v>40</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="21"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="21"/>
+    </row>
+    <row r="8" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="21"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="21"/>
+    </row>
+    <row r="9" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="21"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="21"/>
+    </row>
+    <row r="10" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="21"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="21"/>
+    </row>
+    <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="35"/>
+      <c r="S11" s="21"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="21"/>
+    </row>
+    <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="21"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="21"/>
+    </row>
+    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="21"/>
+    </row>
+    <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="20">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21">
+        <v>40</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="21"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="21"/>
+    </row>
+    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="20">
+        <v>30</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="21">
+        <v>9</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="21"/>
+    </row>
+    <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="20">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="21">
+        <v>40</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="21"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="21"/>
+    </row>
+    <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="23">
+        <v>44</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="24">
+        <v>9</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="21"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="21"/>
+    </row>
+    <row r="19" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="7"/>
+      <c r="N20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="7"/>
+      <c r="N21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="M22" s="7"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F17" r:id="rId4"/>
+    <hyperlink ref="F18" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
 </file>
--- a/Labs/PantallasEjercicios.xlsx
+++ b/Labs/PantallasEjercicios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Conversor" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Parsing" sheetId="3" r:id="rId3"/>
     <sheet name="Agenda" sheetId="4" r:id="rId4"/>
     <sheet name="Flexbox" sheetId="5" r:id="rId5"/>
+    <sheet name="CustomElement" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -163,13 +164,67 @@
   </si>
   <si>
     <t>Media screen: Desktop max 1024</t>
+  </si>
+  <si>
+    <t>Adivina un numero</t>
+  </si>
+  <si>
+    <t>Cuantos numeros?</t>
+  </si>
+  <si>
+    <t>5 Correcto!</t>
+  </si>
+  <si>
+    <t>Minimo 1, maximo 10</t>
+  </si>
+  <si>
+    <t>adivina-x</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>cuantos</t>
+  </si>
+  <si>
+    <t>El usuario da click en algun boton</t>
+  </si>
+  <si>
+    <t>intentos</t>
+  </si>
+  <si>
+    <t>&lt;adivina-x&gt; genera el numero de botones capturado (cuantos) y un numero aleatorio (guess), inicializa intentos = 0</t>
+  </si>
+  <si>
+    <t>El juego comienza de nuevo cuando se repite el paso 1</t>
+  </si>
+  <si>
+    <t>&lt;adivina-x&gt; obtiene el numero de boton oprimido y compara el numero con guess</t>
+  </si>
+  <si>
+    <t>&lt;adivina-x&gt; se inicializa con cuantos=5</t>
+  </si>
+  <si>
+    <t>Si el numero esta entre 1 y 10 se acepta el valor</t>
+  </si>
+  <si>
+    <t>El usuario captura la cantidad de numeros deseado (cuantos) en un rango del 1 al 10</t>
+  </si>
+  <si>
+    <t>Si el numero coincide muestra en un &lt;p&gt; 'X Correcto!'</t>
+  </si>
+  <si>
+    <t>Si el número No coincide muestra en un &lt;p&gt; 'X no es el número, van Y intentos'</t>
+  </si>
+  <si>
+    <t>div</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +297,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +357,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -427,12 +510,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -503,6 +599,15 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2604,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,4 +3402,236 @@
   <pageSetup orientation="portrait" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55">
+        <v>10</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="54">
+        <v>1</v>
+      </c>
+      <c r="E6" s="54">
+        <v>2</v>
+      </c>
+      <c r="F6" s="54">
+        <v>3</v>
+      </c>
+      <c r="G6" s="54">
+        <v>4</v>
+      </c>
+      <c r="H6" s="54">
+        <v>5</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="54">
+        <v>6</v>
+      </c>
+      <c r="E7" s="54">
+        <v>7</v>
+      </c>
+      <c r="F7" s="54">
+        <v>8</v>
+      </c>
+      <c r="G7" s="54">
+        <v>9</v>
+      </c>
+      <c r="H7" s="54">
+        <v>10</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="53"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Labs/PantallasEjercicios.xlsx
+++ b/Labs/PantallasEjercicios.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Conversor" sheetId="1" r:id="rId1"/>
-    <sheet name="CifradoCesar" sheetId="2" r:id="rId2"/>
-    <sheet name="Parsing" sheetId="3" r:id="rId3"/>
-    <sheet name="Agenda" sheetId="4" r:id="rId4"/>
-    <sheet name="Flexbox" sheetId="5" r:id="rId5"/>
-    <sheet name="CustomElement" sheetId="6" r:id="rId6"/>
+    <sheet name="Calif" sheetId="8" r:id="rId1"/>
+    <sheet name="Conv" sheetId="1" r:id="rId2"/>
+    <sheet name="Cifrado" sheetId="2" r:id="rId3"/>
+    <sheet name="Parsing" sheetId="3" r:id="rId4"/>
+    <sheet name="Agenda" sheetId="4" r:id="rId5"/>
+    <sheet name="Flexbox" sheetId="5" r:id="rId6"/>
+    <sheet name="Adivina" sheetId="6" r:id="rId7"/>
+    <sheet name="Reloj" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -218,13 +220,133 @@
   </si>
   <si>
     <t>div</t>
+  </si>
+  <si>
+    <t>10:01:34</t>
+  </si>
+  <si>
+    <t>10:01:34
+2019-02-20</t>
+  </si>
+  <si>
+    <t>&lt;clock mostrarFecha='true'&gt;&lt;/clock&gt;</t>
+  </si>
+  <si>
+    <t>&lt;clock mostrarFecha='false'&gt;&lt;/clock&gt;</t>
+  </si>
+  <si>
+    <t>Parsing</t>
+  </si>
+  <si>
+    <t>Adivina</t>
+  </si>
+  <si>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>Agenda Polymer</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Adivina Polymer</t>
+  </si>
+  <si>
+    <t>Reloj Polymer</t>
+  </si>
+  <si>
+    <t>Agenda 
+Flexbox</t>
+  </si>
+  <si>
+    <t>Conversor 
+Dólar MXP</t>
+  </si>
+  <si>
+    <t>Alumnos</t>
+  </si>
+  <si>
+    <t>Curso Polymer Febrero 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Manuel Alducin Vazquez &lt;luis.alducin@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">César Eduardo Ortega Rosas &lt;cesar.ortega@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando González Castro &lt;fgonzalez@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Alfonso Rivera Pérez &lt;luis.riverap@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Manrique Romero &lt;david.manrique@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Aram Rivera Neri &lt;davida.rivera@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genesis Daniel Santos Vargas &lt;genesis.santos@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdiel Cruz Mendoza &lt;abdiel.cruz@softtek.com&gt;; </t>
+  </si>
+  <si>
+    <t>Ernesto Ramos Manjarrez &lt;ernesto.ramosm@softtek.com&gt;</t>
+  </si>
+  <si>
+    <t>ABCM</t>
+  </si>
+  <si>
+    <t>CEOR1</t>
+  </si>
+  <si>
+    <t>DARN1</t>
+  </si>
+  <si>
+    <t>LARP1</t>
+  </si>
+  <si>
+    <t>DDMR</t>
+  </si>
+  <si>
+    <t>ERAM1</t>
+  </si>
+  <si>
+    <t>FGOC</t>
+  </si>
+  <si>
+    <t>GDSV</t>
+  </si>
+  <si>
+    <t>LMAV</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Monopolio</t>
+  </si>
+  <si>
+    <t>Referencia: https://codepen.io/afarrar/pen/JRaEjP</t>
+  </si>
+  <si>
+    <t>Object oriented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +435,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -608,6 +749,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1639,6 +1800,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256609</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>238039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="381000"/>
+          <a:ext cx="4523809" cy="685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1902,6 +2106,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="mailto:luis.alducin@softtek.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="mailto:cesar.ortega@softtek.com"/>
+    <hyperlink ref="B10" r:id="rId3" display="mailto:fgonzalez@softtek.com"/>
+    <hyperlink ref="B7" r:id="rId4" display="mailto:david.manrique@softtek.com"/>
+    <hyperlink ref="B8" r:id="rId5" display="mailto:davida.rivera@softtek.com"/>
+    <hyperlink ref="B12" r:id="rId6" display="mailto:luis.riverap@softtek.com"/>
+    <hyperlink ref="B5" r:id="rId7" display="mailto:abdiel.cruz@softtek.com"/>
+    <hyperlink ref="B9" r:id="rId8" display="mailto:ernesto.ramosm@softtek.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2080,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K16"/>
   <sheetViews>
@@ -2233,7 +2859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I16"/>
   <sheetViews>
@@ -2385,7 +3011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
@@ -2705,7 +3331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA22"/>
   <sheetViews>
@@ -3404,12 +4030,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,4 +4260,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C5" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="7" spans="3:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C7" s="61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="C8" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Labs/PantallasEjercicios.xlsx
+++ b/Labs/PantallasEjercicios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Calif" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -327,9 +327,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>MB</t>
   </si>
   <si>
@@ -340,6 +337,12 @@
   </si>
   <si>
     <t>Object oriented</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Canciones Polymer</t>
   </si>
 </sst>
 </file>
@@ -436,16 +439,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -669,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -749,13 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2106,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q13"/>
+  <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,392 +2124,431 @@
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+    <row r="4" spans="2:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="66" t="s">
+      <c r="I4" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="N4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="O4" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="P4" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="Q4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="R4" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
         <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="D5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
         <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="D6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
         <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="D7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="D8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="D9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
         <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+      <c r="D10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="61" t="s">
         <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="D11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="61" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="D12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="61" t="s">
         <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
+      <c r="D13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4266,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,27 +4317,27 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C5" s="59" t="s">
+    <row r="5" spans="3:5" ht="27" x14ac:dyDescent="0.45">
+      <c r="C5" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="7" spans="3:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="52.5" x14ac:dyDescent="0.4">
-      <c r="C8" s="60" t="s">
+    <row r="8" spans="3:5" ht="54" x14ac:dyDescent="0.45">
+      <c r="C8" s="65" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Labs/PantallasEjercicios.xlsx
+++ b/Labs/PantallasEjercicios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="740" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Calif" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Flexbox" sheetId="5" r:id="rId6"/>
     <sheet name="Adivina" sheetId="6" r:id="rId7"/>
     <sheet name="Reloj" sheetId="7" r:id="rId8"/>
+    <sheet name="calculateIS" sheetId="9" r:id="rId9"/>
+    <sheet name="Guess" sheetId="11" r:id="rId10"/>
+    <sheet name="Proyecto Final" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="127">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -250,9 +253,6 @@
     <t>IS</t>
   </si>
   <si>
-    <t>Adivina Polymer</t>
-  </si>
-  <si>
     <t>Reloj Polymer</t>
   </si>
   <si>
@@ -330,9 +330,6 @@
     <t>MB</t>
   </si>
   <si>
-    <t>Monopolio</t>
-  </si>
-  <si>
     <t>Referencia: https://codepen.io/afarrar/pen/JRaEjP</t>
   </si>
   <si>
@@ -343,13 +340,232 @@
   </si>
   <si>
     <t>Canciones Polymer</t>
+  </si>
+  <si>
+    <t>Apellido Paterno</t>
+  </si>
+  <si>
+    <t>Apellido Materno</t>
+  </si>
+  <si>
+    <t>JLIL</t>
+  </si>
+  <si>
+    <t>&lt;calculate-is &gt;</t>
+  </si>
+  <si>
+    <t>Practica de observers y calculated properties</t>
+  </si>
+  <si>
+    <t>2 nombres</t>
+  </si>
+  <si>
+    <t>1 nombre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ruz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endoza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ose</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>turbide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opez</t>
+    </r>
+  </si>
+  <si>
+    <t>Mientras los campos no esten llenos colorearlos de rojo.</t>
+  </si>
+  <si>
+    <t>El input IS no debe ser editable</t>
+  </si>
+  <si>
+    <t>Escribe aquí tu nombre</t>
+  </si>
+  <si>
+    <t>Escribe aquí tu apellido materno</t>
+  </si>
+  <si>
+    <t>Escribe aquí tu apellido paterno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo: </t>
+  </si>
+  <si>
+    <t>joseluis.iturbide@softtek</t>
+  </si>
+  <si>
+    <t>Custom Elements</t>
+  </si>
+  <si>
+    <t>Custom Elements y Polymer</t>
+  </si>
+  <si>
+    <t>Polymer</t>
+  </si>
+  <si>
+    <t>Calcula IS</t>
+  </si>
+  <si>
+    <t>Guess Flag Polymer</t>
+  </si>
+  <si>
+    <t>Polymer, Adivina Bandera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,8 +667,22 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +740,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -769,6 +1017,16 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1843,6 +2101,109 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352411</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1238250" y="390525"/>
+          <a:ext cx="5819761" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>799</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238251" y="581025"/>
+          <a:ext cx="6077748" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2109,7 +2470,7 @@
   <dimension ref="B2:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M5" sqref="M5:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,18 +2495,18 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="75" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="64" t="s">
         <v>8</v>
@@ -2157,10 +2518,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>68</v>
@@ -2169,383 +2530,415 @@
         <v>69</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M4" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="P4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O5" s="62"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="62"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O7" s="62"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="62"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>97</v>
-      </c>
       <c r="K10" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="62"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>97</v>
-      </c>
       <c r="I13" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
@@ -2562,6 +2955,79 @@
     <hyperlink ref="B9" r:id="rId8" display="mailto:ernesto.ramosm@softtek.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+    </row>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4071,10 +4537,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L19"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,6 +4552,11 @@
     <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="70" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="52" t="s">
         <v>45</v>
@@ -4303,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E8"/>
+  <dimension ref="C1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,9 +4786,14 @@
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="70" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -4346,4 +4822,148 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="69"/>
+      <c r="C1" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="74"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>